--- a/Administracion-de-Proyectos/Planeacion-del-proyecto/Administracion-de-riesgos/Procesos/Herramienta para la Administración de Riesgos.xlsx
+++ b/Administracion-de-Proyectos/Planeacion-del-proyecto/Administracion-de-riesgos/Procesos/Herramienta para la Administración de Riesgos.xlsx
@@ -4,31 +4,32 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="2925" windowWidth="14760" windowHeight="9780"/>
+    <workbookView xWindow="1620" yWindow="2925" windowWidth="14760" windowHeight="9780" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Identificacion" sheetId="9" r:id="rId1"/>
-    <sheet name="Guia de Usuario" sheetId="6" r:id="rId2"/>
-    <sheet name="Detalle del Riesgo" sheetId="8" r:id="rId3"/>
-    <sheet name="Resumen" sheetId="2" r:id="rId4"/>
-    <sheet name="Grafico" sheetId="10" r:id="rId5"/>
-    <sheet name="Exposure" sheetId="5" state="hidden" r:id="rId6"/>
+    <sheet name="Control de cambios " sheetId="11" r:id="rId2"/>
+    <sheet name="Guia de Usuario" sheetId="6" r:id="rId3"/>
+    <sheet name="Detalle del Riesgo" sheetId="8" r:id="rId4"/>
+    <sheet name="Resumen" sheetId="2" r:id="rId5"/>
+    <sheet name="Grafico" sheetId="10" r:id="rId6"/>
+    <sheet name="Exposure" sheetId="5" state="hidden" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Detalle del Riesgo'!$I$1:$I$774</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Resumen!$A$11:$J$41</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'Detalle del Riesgo'!$B$3:$F$774</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Guia de Usuario'!$A$3:$B$130</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">Resumen!$A$1:$J$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Detalle del Riesgo'!$I$1:$I$774</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Resumen!$A$11:$J$41</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Detalle del Riesgo'!$B$3:$F$774</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Guia de Usuario'!$A$3:$B$130</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">Resumen!$A$1:$J$41</definedName>
     <definedName name="Exposure">Exposure!$S$4:$U$28</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="2">'Detalle del Riesgo'!$2:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">'Detalle del Riesgo'!$2:$2</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2066" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2077" uniqueCount="263">
   <si>
     <t xml:space="preserve">El informe del resumen de los riesgos sintetiza el estado total de los riesgos en el proyecto.  </t>
   </si>
@@ -1166,6 +1167,18 @@
   <si>
     <t>AAA y Asociados</t>
   </si>
+  <si>
+    <t>Control de cambios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Id. Proyecto </t>
+  </si>
+  <si>
+    <t>Nombre del Proyecto</t>
+  </si>
+  <si>
+    <t>Historial de Cambios</t>
+  </si>
 </sst>
 </file>
 
@@ -1354,7 +1367,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1713,12 +1726,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="237">
+  <cellXfs count="250">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2346,6 +2372,15 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2358,15 +2393,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3282,12 +3345,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="55957760"/>
-        <c:axId val="55967744"/>
-        <c:axId val="54312448"/>
+        <c:axId val="101950208"/>
+        <c:axId val="101951744"/>
+        <c:axId val="70442048"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="55957760"/>
+        <c:axId val="101950208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3332,7 +3395,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="55967744"/>
+        <c:crossAx val="101951744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3342,7 +3405,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="55967744"/>
+        <c:axId val="101951744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3387,13 +3450,13 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="55957760"/>
+        <c:crossAx val="101950208"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="54312448"/>
+        <c:axId val="70442048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3438,7 +3501,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="55967744"/>
+        <c:crossAx val="101951744"/>
         <c:crosses val="autoZero"/>
         <c:tickLblSkip val="1"/>
         <c:tickMarkSkip val="1"/>
@@ -6122,7 +6185,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
@@ -6135,14 +6198,14 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:5" ht="111" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="233"/>
-      <c r="B3" s="233"/>
+      <c r="A3" s="236"/>
+      <c r="B3" s="236"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="233" t="s">
+      <c r="A4" s="236" t="s">
         <v>258</v>
       </c>
-      <c r="B4" s="233"/>
+      <c r="B4" s="236"/>
     </row>
     <row r="7" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A7" s="194" t="s">
@@ -6153,7 +6216,7 @@
       <c r="A8" s="195"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="234" t="s">
+      <c r="A9" s="230" t="s">
         <v>216</v>
       </c>
       <c r="B9" s="196"/>
@@ -6161,7 +6224,7 @@
       <c r="D9" s="196"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="234" t="s">
+      <c r="A10" s="230" t="s">
         <v>217</v>
       </c>
       <c r="B10" s="196"/>
@@ -6169,7 +6232,7 @@
       <c r="D10" s="196"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="234" t="s">
+      <c r="A11" s="230" t="s">
         <v>218</v>
       </c>
       <c r="B11" s="197"/>
@@ -6177,7 +6240,7 @@
       <c r="D11" s="196"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="234" t="s">
+      <c r="A12" s="230" t="s">
         <v>219</v>
       </c>
       <c r="B12" s="196"/>
@@ -6185,7 +6248,7 @@
       <c r="D12" s="196"/>
     </row>
     <row r="13" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="234" t="s">
+      <c r="A13" s="230" t="s">
         <v>220</v>
       </c>
       <c r="B13" s="196"/>
@@ -6193,7 +6256,7 @@
       <c r="D13" s="196"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="234" t="s">
+      <c r="A14" s="230" t="s">
         <v>221</v>
       </c>
       <c r="B14" s="196"/>
@@ -6207,19 +6270,19 @@
       <c r="D15" s="196"/>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="230" t="s">
+      <c r="A16" s="233" t="s">
         <v>222</v>
       </c>
-      <c r="B16" s="231"/>
+      <c r="B16" s="234"/>
       <c r="C16" s="198"/>
       <c r="D16" s="198"/>
       <c r="E16" s="199"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="234" t="s">
+      <c r="A17" s="230" t="s">
         <v>223</v>
       </c>
-      <c r="B17" s="234" t="s">
+      <c r="B17" s="230" t="s">
         <v>224</v>
       </c>
       <c r="C17" s="196"/>
@@ -6250,18 +6313,18 @@
       <c r="D21" s="196"/>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="230" t="s">
+      <c r="A22" s="233" t="s">
         <v>225</v>
       </c>
-      <c r="B22" s="231"/>
+      <c r="B22" s="234"/>
       <c r="C22" s="196"/>
       <c r="D22" s="196"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="234" t="s">
+      <c r="A23" s="230" t="s">
         <v>223</v>
       </c>
-      <c r="B23" s="234" t="s">
+      <c r="B23" s="230" t="s">
         <v>226</v>
       </c>
       <c r="C23" s="196"/>
@@ -6292,39 +6355,39 @@
       <c r="D27" s="196"/>
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="230" t="s">
+      <c r="A28" s="233" t="s">
         <v>227</v>
       </c>
-      <c r="B28" s="232"/>
-      <c r="C28" s="232"/>
-      <c r="D28" s="231"/>
+      <c r="B28" s="235"/>
+      <c r="C28" s="235"/>
+      <c r="D28" s="234"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="234" t="s">
+      <c r="A29" s="230" t="s">
         <v>216</v>
       </c>
-      <c r="B29" s="235" t="s">
+      <c r="B29" s="231" t="s">
         <v>218</v>
       </c>
-      <c r="C29" s="235" t="s">
+      <c r="C29" s="231" t="s">
         <v>228</v>
       </c>
-      <c r="D29" s="235" t="s">
+      <c r="D29" s="231" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="236"/>
+      <c r="A30" s="232"/>
       <c r="B30" s="197"/>
       <c r="C30" s="200"/>
       <c r="D30" s="200"/>
     </row>
     <row r="31" spans="1:4" s="200" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="236"/>
+      <c r="A31" s="232"/>
       <c r="B31" s="201"/>
     </row>
     <row r="32" spans="1:4" s="200" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="236"/>
+      <c r="A32" s="232"/>
       <c r="B32" s="201"/>
     </row>
   </sheetData>
@@ -6343,6 +6406,110 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30.42578125" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" customWidth="1"/>
+    <col min="3" max="3" width="30.5703125" customWidth="1"/>
+    <col min="4" max="4" width="43" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A3" s="237" t="s">
+        <v>259</v>
+      </c>
+      <c r="B3" s="238"/>
+    </row>
+    <row r="4" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="238"/>
+    </row>
+    <row r="5" spans="1:4" s="240" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="239" t="s">
+        <v>260</v>
+      </c>
+      <c r="B5" s="238"/>
+    </row>
+    <row r="6" spans="1:4" s="240" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="241" t="s">
+        <v>261</v>
+      </c>
+      <c r="B6" s="242"/>
+    </row>
+    <row r="7" spans="1:4" s="240" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="241" t="s">
+        <v>218</v>
+      </c>
+      <c r="B7" s="243"/>
+    </row>
+    <row r="8" spans="1:4" s="240" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="241" t="s">
+        <v>219</v>
+      </c>
+      <c r="B8" s="242"/>
+    </row>
+    <row r="9" spans="1:4" s="240" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="241" t="s">
+        <v>220</v>
+      </c>
+      <c r="B9" s="196"/>
+    </row>
+    <row r="10" spans="1:4" s="240" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="242"/>
+    </row>
+    <row r="11" spans="1:4" s="240" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="244" t="s">
+        <v>262</v>
+      </c>
+      <c r="B11" s="245"/>
+      <c r="C11" s="245"/>
+      <c r="D11" s="246"/>
+    </row>
+    <row r="12" spans="1:4" s="240" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="241" t="s">
+        <v>216</v>
+      </c>
+      <c r="B12" s="247" t="s">
+        <v>218</v>
+      </c>
+      <c r="C12" s="248" t="s">
+        <v>228</v>
+      </c>
+      <c r="D12" s="247" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="240" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="232"/>
+      <c r="B13" s="197"/>
+      <c r="C13" s="200"/>
+      <c r="D13" s="200"/>
+    </row>
+    <row r="14" spans="1:4" s="240" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="232"/>
+      <c r="B14" s="201"/>
+      <c r="C14" s="200"/>
+      <c r="D14" s="200"/>
+    </row>
+    <row r="15" spans="1:4" s="240" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="232"/>
+      <c r="B15" s="201"/>
+      <c r="C15" s="200"/>
+      <c r="D15" s="200"/>
+    </row>
+    <row r="16" spans="1:4" s="249" customFormat="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1">
     <pageSetUpPr fitToPage="1"/>
@@ -7209,12 +7376,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:AB775"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="D553" sqref="D553"/>
     </sheetView>
   </sheetViews>
@@ -19672,7 +19839,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja3">
     <pageSetUpPr fitToPage="1"/>
@@ -21220,7 +21387,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:H1002"/>
   <sheetViews>
@@ -27300,7 +27467,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja4"/>
   <dimension ref="A2:AA46"/>
